--- a/appendix_E.xlsx
+++ b/appendix_E.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Payload computations</t>
   </si>
@@ -66,9 +66,6 @@
     <t>seat 10</t>
   </si>
   <si>
-    <t>mass[kg]</t>
-  </si>
-  <si>
     <t>Mass and balance computations</t>
   </si>
   <si>
@@ -96,7 +93,19 @@
     <t>g</t>
   </si>
   <si>
-    <t>9.81*54</t>
+    <t>baggage</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>aft cabin 1</t>
+  </si>
+  <si>
+    <t>aft cabin 2</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -162,11 +171,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -174,9 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -186,13 +318,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,7 +703,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,822 +713,851 @@
     <col min="5" max="5" width="22.21875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="18" max="18" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2">
+        <v>9.81</v>
+      </c>
+      <c r="R2" s="2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.453592</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <f>131*$B$15</f>
+      <c r="B4" s="8">
+        <f>131*$N$2</f>
         <v>3.3273999999999999</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <f>70*9.81</f>
         <v>686.7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1">
+        <f>N2*N3/100</f>
+        <v>1.1521236799999999E-4</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <f>131*$B$15</f>
+      <c r="B5" s="8">
+        <f>131*$N$2</f>
         <v>3.3273999999999999</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <f>70*9.81</f>
         <v>686.7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <f>214*$B$15</f>
+      <c r="B6" s="8">
+        <f>214*$N$2</f>
         <v>5.4356</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="11">
         <f>9.81*54</f>
         <v>529.74</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <f>214*$B$15</f>
+      <c r="B7" s="8">
+        <f>214*$N$2</f>
         <v>5.4356</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="11">
         <f>9.81*65</f>
         <v>637.65</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <f>251*$B$15</f>
+      <c r="B8" s="8">
+        <f>251*$N$2</f>
         <v>6.3754</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <f>9.81*63</f>
         <v>618.03000000000009</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <f>251*$B$15</f>
+      <c r="B9" s="8">
+        <f>251*$N$2</f>
         <v>6.3754</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <f>9.81*60</f>
         <v>588.6</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <f>288*$B$15</f>
+      <c r="B10" s="8">
+        <f>288*$N$2</f>
         <v>7.3151999999999999</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="C10" s="11">
+        <f>9.81*54</f>
+        <v>529.74</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
-        <f>288*$B$15</f>
+      <c r="B11" s="8">
+        <f>288*$N$2</f>
         <v>7.3151999999999999</v>
       </c>
-      <c r="C11" s="9">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="C11" s="11">
+        <f>9.81*80</f>
+        <v>784.80000000000007</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
-        <f>170*$B$15</f>
+      <c r="B12" s="8">
+        <f>170*$N$2</f>
         <v>4.3179999999999996</v>
       </c>
-      <c r="C12" s="8">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="9">
+        <f>9.81*65</f>
+        <v>637.65</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
-        <f>170*$B$15</f>
+      <c r="B13" s="8">
+        <f>170*$N$2</f>
         <v>4.3179999999999996</v>
       </c>
-      <c r="C13" s="8">
-        <v>65</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="C13" s="9">
+        <f>9.81*65</f>
+        <v>637.65</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E15">
-        <v>9.81</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.453592</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="A16" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1">
-        <f>B15*B16/100</f>
-        <v>1.1521236799999999E-4</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="A17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8">
+        <v>321</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8">
+        <v>338</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="A19" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -1451,9 +1684,10 @@
       <c r="V35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/appendix_E.xlsx
+++ b/appendix_E.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SVV-Flight-Dynamics\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Payload computations</t>
   </si>
@@ -97,6 +102,12 @@
   </si>
   <si>
     <t>9.81*54</t>
+  </si>
+  <si>
+    <t>Fuel mass</t>
+  </si>
+  <si>
+    <t>Fuel moment</t>
   </si>
 </sst>
 </file>
@@ -174,9 +185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -195,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +215,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -252,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,7 +301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,822 +523,961 @@
     <col min="5" max="5" width="22.21875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="18" max="18" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>131*$B$15</f>
         <v>3.3273999999999999</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>70*9.81</f>
         <v>686.7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4" s="2">
+        <v>298.16000000000003</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>131*$B$15</f>
         <v>3.3273999999999999</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>70*9.81</f>
         <v>686.7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <f>J4+100</f>
+        <v>200</v>
+      </c>
+      <c r="K5" s="2">
+        <v>598.17999999999995</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>214*$B$15</f>
         <v>5.4356</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f>9.81*54</f>
         <v>529.74</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:J59" si="0">J5+100</f>
+        <v>300</v>
+      </c>
+      <c r="K6" s="2">
+        <v>879.08</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>214*$B$15</f>
         <v>5.4356</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f>9.81*65</f>
         <v>637.65</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1165.42</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>251*$B$15</f>
         <v>6.3754</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f>9.81*63</f>
         <v>618.03000000000009</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1448.4</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>251*$B$15</f>
         <v>6.3754</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>9.81*60</f>
         <v>588.6</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1732.53</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>288*$B$15</f>
         <v>7.3151999999999999</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2014.8</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>288*$B$15</f>
         <v>7.3151999999999999</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>80</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2298.84</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>170*$B$15</f>
         <v>4.3179999999999996</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>65</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2581.92</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>170*$B$15</f>
         <v>4.3179999999999996</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>65</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2866.3</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3150.18</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E15">
         <v>9.81</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3434.52</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>0.453592</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3718.52</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1">
         <f>B15*B16/100</f>
         <v>1.1521236799999999E-4</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4003.23</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4287.76</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4572.24</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4856.5600000000004</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5141.16</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5425.64</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5709.9</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5994.04</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5278.47</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="K26" s="2">
+        <v>6562.82</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="K27" s="2">
+        <v>6846.96</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="K28" s="2">
+        <v>7131</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="K29" s="2">
+        <v>7415.33</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="K30" s="2">
+        <v>7699.6</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -1340,8 +1493,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="K31" s="2">
+        <v>7984.34</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1364,8 +1522,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="K32" s="2">
+        <v>8269.06</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1388,8 +1551,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="2">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="K33" s="2">
+        <v>8554.0499999999993</v>
+      </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1412,8 +1580,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="2">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="K34" s="2">
+        <v>8839.0400000000009</v>
+      </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1436,8 +1609,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="2">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="K35" s="2">
+        <v>9124.7999999999993</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1449,6 +1627,185 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J36" s="2">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+      <c r="K36" s="2">
+        <v>9410.6200000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J37" s="2">
+        <f t="shared" si="0"/>
+        <v>3400</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9696.9699999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J38" s="2">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9983.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J39" s="2">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="K39" s="2">
+        <v>10270.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+      <c r="K40" s="2">
+        <v>10556.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J41" s="2">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="K41" s="2">
+        <v>10843.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J42" s="2">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="K42" s="2">
+        <v>11131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J43" s="2">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>11418.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J44" s="2">
+        <f t="shared" si="0"/>
+        <v>4100</v>
+      </c>
+      <c r="K44" s="2">
+        <v>11705.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J45" s="2">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+      <c r="K45" s="2">
+        <v>11993.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J46" s="2">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+      <c r="K46" s="2">
+        <v>12281.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J47" s="2">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="K47" s="2">
+        <v>12569.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J48" s="2">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="K48" s="2">
+        <v>12856.86</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="2">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+      <c r="K49" s="2">
+        <v>13144.73</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J50" s="2">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K50" s="2">
+        <v>13432.48</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J51" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="K51" s="2">
+        <v>13720.56</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J52" s="2">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="K52" s="2">
+        <v>14008.46</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J53" s="2">
+        <v>5008</v>
+      </c>
+      <c r="K53" s="2">
+        <v>14320.34</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J59" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/appendix_E.xlsx
+++ b/appendix_E.xlsx
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,18 +336,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -375,9 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,9 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +692,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,18 +708,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -747,14 +736,14 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="21"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -779,7 +768,7 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -788,7 +777,7 @@
       <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -800,7 +789,7 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="2"/>
@@ -820,7 +809,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="8">
@@ -831,7 +820,10 @@
         <f>70*9.81</f>
         <v>686.7</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13">
+        <f>C4*B4</f>
+        <v>2284.9255800000001</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
@@ -856,7 +848,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8">
@@ -867,7 +859,10 @@
         <f>70*9.81</f>
         <v>686.7</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13">
+        <f t="shared" ref="D5:D13" si="0">C5*B5</f>
+        <v>2284.9255800000001</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
@@ -884,7 +879,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="8">
@@ -895,7 +890,10 @@
         <f>9.81*54</f>
         <v>529.74</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>2879.4547440000001</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
@@ -914,7 +912,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="8">
@@ -925,7 +923,10 @@
         <f>9.81*65</f>
         <v>637.65</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>3466.0103399999998</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
@@ -946,7 +947,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8">
@@ -957,7 +958,10 @@
         <f>9.81*63</f>
         <v>618.03000000000009</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>3940.1884620000005</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
@@ -980,7 +984,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8">
@@ -991,7 +995,10 @@
         <f>9.81*60</f>
         <v>588.6</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>3752.5604400000002</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1012,7 +1019,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8">
@@ -1023,7 +1030,10 @@
         <f>9.81*54</f>
         <v>529.74</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>3875.1540479999999</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1044,7 +1054,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="8">
@@ -1055,7 +1065,10 @@
         <f>9.81*80</f>
         <v>784.80000000000007</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>5740.9689600000002</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1076,7 +1089,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="8">
@@ -1087,7 +1100,10 @@
         <f>9.81*65</f>
         <v>637.65</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>2753.3726999999994</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1108,7 +1124,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="8">
@@ -1119,7 +1135,10 @@
         <f>9.81*65</f>
         <v>637.65</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>2753.3726999999994</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1140,10 +1159,12 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1164,12 +1185,14 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8">
+        <v>74</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1190,14 +1213,14 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>26</v>
+      <c r="A16" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="8">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1217,15 +1240,15 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>27</v>
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="8">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1245,19 +1268,17 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8">
-        <v>338</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1274,16 +1295,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1306,7 +1318,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1357,7 +1369,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1684,10 +1696,9 @@
       <c r="V35" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
